--- a/config/pipesar2s/timing_table.xlsx
+++ b/config/pipesar2s/timing_table.xlsx
@@ -97,13 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,9 +417,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
